--- a/Case/imooc.xlsx
+++ b/Case/imooc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21000" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>case编号</t>
   </si>
@@ -69,52 +69,55 @@
     <t>{"username":"123123"}</t>
   </si>
   <si>
+    <t>errorcode</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>mec</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>下单</t>
+  </si>
+  <si>
+    <t>http://www.imooc.com/api/getbanner</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>10032</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>评价</t>
+  </si>
+  <si>
+    <t>api3/beta4</t>
+  </si>
+  <si>
     <t>json</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>errorcode</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>下单</t>
-  </si>
-  <si>
-    <t>http://www.imooc.com/api/getbanner</t>
-  </si>
-  <si>
-    <t>write</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>评价</t>
-  </si>
-  <si>
-    <t>api3/beta4</t>
-  </si>
-  <si>
-    <t>mec</t>
   </si>
 </sst>
 </file>
@@ -122,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,6 +156,56 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,63 +228,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,8 +251,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,15 +267,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,13 +292,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,13 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,139 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,21 +491,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,32 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,6 +553,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,7 +603,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,7 +612,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,112 +624,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,7 +1098,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1141,7 +1144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:9">
+    <row r="2" ht="28.8" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1165,35 +1168,38 @@
       </c>
       <c r="I2" t="s">
         <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:10">
@@ -1219,18 +1225,18 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1239,16 +1245,16 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/Case/imooc.xlsx
+++ b/Case/imooc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>case编号</t>
   </si>
@@ -51,6 +51,9 @@
     <t>result</t>
   </si>
   <si>
+    <t>header操作</t>
+  </si>
+  <si>
     <t>001</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
     <t>1006</t>
   </si>
   <si>
+    <t>通过</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
@@ -108,6 +114,12 @@
     <t>10032</t>
   </si>
   <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>"Sorry, Page Not Found\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000\u0000"</t>
+  </si>
+  <si>
     <t>004</t>
   </si>
   <si>
@@ -118,6 +130,9 @@
   </si>
   <si>
     <t>json</t>
+  </si>
+  <si>
+    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1586179112837}</t>
   </si>
 </sst>
 </file>
@@ -125,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -155,7 +170,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,49 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -251,6 +267,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -262,14 +285,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,49 +307,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,37 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,91 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,11 +501,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,23 +558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,8 +567,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,21 +580,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,165 +603,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,21 +1108,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="5" max="5" width="35.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="17.3796296296296" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="35.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3796296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1143,123 +1156,147 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="28.8" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" ht="28.8" customHeight="1" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" customHeight="1" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" customHeight="1" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" ht="28.8" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:10">
-      <c r="A4" s="1" t="s">
+    <row r="5" ht="28.8" customHeight="1" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
+      <c r="L5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
